--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC5862F-82BA-4D20-93E9-26B61B18ECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6C4B2-C7E3-43F7-BD8C-A5D58B8922BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="5955" windowWidth="35040" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6000" yWindow="3675" windowWidth="29130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BossTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,50 @@
   </si>
   <si>
     <t>60000,5000000,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilityValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐욕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradePrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,16 +654,18 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="37.75" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="24.125" customWidth="1"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
     <col min="12" max="12" width="13.125" customWidth="1"/>
     <col min="13" max="13" width="22.25" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,8 +705,23 @@
       <c r="M1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -700,8 +761,23 @@
       <c r="M2" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>17</v>
+      </c>
+      <c r="O2">
+        <v>0.02</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -741,8 +817,23 @@
       <c r="M3" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -782,8 +873,23 @@
       <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -823,8 +929,23 @@
       <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -864,8 +985,23 @@
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -904,6 +1040,21 @@
       </c>
       <c r="M7" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7">
+        <v>50000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6C4B2-C7E3-43F7-BD8C-A5D58B8922BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403126B4-2A2E-4384-9176-95B786B89AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3675" windowWidth="29130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BossTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,10 @@
   </si>
   <si>
     <t>upgradePrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,7 +669,7 @@
     <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,8 +724,11 @@
       <c r="R1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -776,8 +783,11 @@
       <c r="R2">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="S2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -832,8 +842,11 @@
       <c r="R3">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -888,8 +901,11 @@
       <c r="R4">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -944,8 +960,11 @@
       <c r="R5">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1000,8 +1019,11 @@
       <c r="R6">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1055,6 +1077,9 @@
       </c>
       <c r="R7">
         <v>50000000</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403126B4-2A2E-4384-9176-95B786B89AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8B51E-4D3E-4D71-AEE9-2DAE4BBE4D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,50 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세이튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>릴리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레비아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벨페고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바르바로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시의 전 요리사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시의 전 청소부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시의 전 안마사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시의 전 애완용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시의 전 운전기사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,11 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루시의 전 애완벌
-&lt;color=red&gt;(스킬 이동효과 면역)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>60000,5000000,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +224,90 @@
   </si>
   <si>
     <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss6</t>
+  </si>
+  <si>
+    <t>boss7</t>
+  </si>
+  <si>
+    <t>boss8</t>
+  </si>
+  <si>
+    <t>boss9</t>
+  </si>
+  <si>
+    <t>boss10</t>
+  </si>
+  <si>
+    <t>boss11</t>
+  </si>
+  <si>
+    <t>보스6</t>
+  </si>
+  <si>
+    <t>보스7</t>
+  </si>
+  <si>
+    <t>보스8</t>
+  </si>
+  <si>
+    <t>보스9</t>
+  </si>
+  <si>
+    <t>보스10</t>
+  </si>
+  <si>
+    <t>보스11</t>
+  </si>
+  <si>
+    <t>자괴(쥐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인괴(호랑이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘괴(토끼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진괴(용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사괴(뱀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오괴(말)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미괴(양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신괴(원숭이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술괴(개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해괴(돼지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유괴(닭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축괴(소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,10 +730,10 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -710,22 +745,22 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="S1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -736,14 +771,11 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
       <c r="F2">
         <v>1000000000000</v>
       </c>
@@ -766,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N2">
         <v>17</v>
@@ -778,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="R2">
         <v>50000000</v>
@@ -787,7 +819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -795,14 +827,12 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3">
         <v>100000000000000</v>
       </c>
@@ -825,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -837,7 +867,7 @@
         <v>20</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="R3">
         <v>50000000</v>
@@ -854,14 +884,11 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
       <c r="F4">
         <v>5000000000000</v>
       </c>
@@ -896,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="R4">
         <v>50000000</v>
@@ -913,14 +940,11 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
       <c r="F5">
         <v>50000000000000</v>
       </c>
@@ -955,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="R5">
         <v>50000000</v>
@@ -972,14 +996,11 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
       <c r="F6">
         <v>50000000000000</v>
       </c>
@@ -1014,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="R6">
         <v>50000000</v>
@@ -1031,14 +1052,11 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7">
         <v>50000000000000</v>
       </c>
@@ -1073,12 +1091,348 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="R7">
         <v>50000000</v>
       </c>
       <c r="S7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>50000000000000</v>
+      </c>
+      <c r="G8">
+        <v>50000</v>
+      </c>
+      <c r="H8">
+        <v>100000</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8">
+        <v>50000000</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>50000000000000</v>
+      </c>
+      <c r="G9">
+        <v>50000</v>
+      </c>
+      <c r="H9">
+        <v>100000</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9">
+        <v>50000000</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10">
+        <v>50000000000000</v>
+      </c>
+      <c r="G10">
+        <v>50000</v>
+      </c>
+      <c r="H10">
+        <v>100000</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10">
+        <v>50000000</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>50000000000000</v>
+      </c>
+      <c r="G11">
+        <v>50000</v>
+      </c>
+      <c r="H11">
+        <v>100000</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11">
+        <v>50000000</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>50000000000000</v>
+      </c>
+      <c r="G12">
+        <v>50000</v>
+      </c>
+      <c r="H12">
+        <v>100000</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12">
+        <v>50000000</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>50000000000000</v>
+      </c>
+      <c r="G13">
+        <v>50000</v>
+      </c>
+      <c r="H13">
+        <v>100000</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13">
+        <v>50000000</v>
+      </c>
+      <c r="S13">
         <v>10</v>
       </c>
     </row>
@@ -1135,15 +1489,15 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1157,7 +1511,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>60000</v>
@@ -1171,21 +1525,21 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8B51E-4D3E-4D71-AEE9-2DAE4BBE4D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD48DC-A681-4090-A6C9-BFF51669B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BossTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,21 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boss1</t>
-  </si>
-  <si>
-    <t>boss2</t>
-  </si>
-  <si>
-    <t>boss3</t>
-  </si>
-  <si>
-    <t>boss4</t>
-  </si>
-  <si>
-    <t>boss5</t>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,22 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스2</t>
-  </si>
-  <si>
-    <t>보스3</t>
-  </si>
-  <si>
-    <t>보스4</t>
-  </si>
-  <si>
-    <t>보스5</t>
-  </si>
-  <si>
-    <t>보스1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rewardMaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60000,5000000,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abilityType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,26 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폭식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐욕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>upgradePrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,87 +172,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boss6</t>
-  </si>
-  <si>
-    <t>boss7</t>
-  </si>
-  <si>
-    <t>boss8</t>
-  </si>
-  <si>
-    <t>boss9</t>
-  </si>
-  <si>
-    <t>boss10</t>
-  </si>
-  <si>
-    <t>boss11</t>
-  </si>
-  <si>
-    <t>보스6</t>
-  </si>
-  <si>
-    <t>보스7</t>
-  </si>
-  <si>
-    <t>보스8</t>
-  </si>
-  <si>
-    <t>보스9</t>
-  </si>
-  <si>
-    <t>보스10</t>
-  </si>
-  <si>
-    <t>보스11</t>
-  </si>
-  <si>
-    <t>자괴(쥐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인괴(호랑이)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>묘괴(토끼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진괴(용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사괴(뱀)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오괴(말)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미괴(양)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신괴(원숭이)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>술괴(개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해괴(돼지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유괴(닭)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축괴(소)</t>
+    <t>고양이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,9 +228,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -712,55 +574,55 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="S1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -771,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>1000000000000</v>
@@ -795,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N2">
         <v>17</v>
@@ -810,629 +672,12 @@
         <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="R2">
         <v>50000000</v>
       </c>
       <c r="S2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3">
-        <v>100000000000000</v>
-      </c>
-      <c r="G3">
-        <v>10000000000000</v>
-      </c>
-      <c r="H3">
-        <v>50000000000000</v>
-      </c>
-      <c r="I3">
-        <v>10000</v>
-      </c>
-      <c r="J3">
-        <v>1000000</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3">
-        <v>50000000</v>
-      </c>
-      <c r="S3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>5000000000000</v>
-      </c>
-      <c r="G4">
-        <v>50000</v>
-      </c>
-      <c r="H4">
-        <v>100000</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4">
-        <v>50000000</v>
-      </c>
-      <c r="S4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>50000000000000</v>
-      </c>
-      <c r="G5">
-        <v>50000</v>
-      </c>
-      <c r="H5">
-        <v>100000</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5">
-        <v>50000000</v>
-      </c>
-      <c r="S5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>50000000000000</v>
-      </c>
-      <c r="G6">
-        <v>50000</v>
-      </c>
-      <c r="H6">
-        <v>100000</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6">
-        <v>50000000</v>
-      </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>50000000000000</v>
-      </c>
-      <c r="G7">
-        <v>50000</v>
-      </c>
-      <c r="H7">
-        <v>100000</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7">
-        <v>50000000</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8">
-        <v>50000000000000</v>
-      </c>
-      <c r="G8">
-        <v>50000</v>
-      </c>
-      <c r="H8">
-        <v>100000</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8">
-        <v>50000000</v>
-      </c>
-      <c r="S8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9">
-        <v>50000000000000</v>
-      </c>
-      <c r="G9">
-        <v>50000</v>
-      </c>
-      <c r="H9">
-        <v>100000</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9">
-        <v>50000000</v>
-      </c>
-      <c r="S9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10">
-        <v>50000000000000</v>
-      </c>
-      <c r="G10">
-        <v>50000</v>
-      </c>
-      <c r="H10">
-        <v>100000</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10">
-        <v>50000000</v>
-      </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11">
-        <v>50000000000000</v>
-      </c>
-      <c r="G11">
-        <v>50000</v>
-      </c>
-      <c r="H11">
-        <v>100000</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11">
-        <v>50000000</v>
-      </c>
-      <c r="S11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12">
-        <v>50000000000000</v>
-      </c>
-      <c r="G12">
-        <v>50000</v>
-      </c>
-      <c r="H12">
-        <v>100000</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12">
-        <v>50000000</v>
-      </c>
-      <c r="S12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13">
-        <v>50000000000000</v>
-      </c>
-      <c r="G13">
-        <v>50000</v>
-      </c>
-      <c r="H13">
-        <v>100000</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13">
-        <v>50000000</v>
-      </c>
-      <c r="S13">
         <v>10</v>
       </c>
     </row>
@@ -1461,16 +706,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1481,23 +726,23 @@
         <v>40000000000000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1511,7 +756,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>60000</v>
@@ -1525,21 +770,21 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD48DC-A681-4090-A6C9-BFF51669B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB709CD1-59AE-4561-AC57-1E5FD588E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BossTable" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,10 +648,10 @@
         <v>1000000000</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>300000</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB709CD1-59AE-4561-AC57-1E5FD588E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D8949-36E5-4AA9-B51D-8DCC9E345C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BossTable" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40000,2000000,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abilityType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +169,10 @@
   </si>
   <si>
     <t>고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,3000000,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +546,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
     <col min="7" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="24.125" customWidth="1"/>
@@ -607,22 +607,22 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
       <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
         <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -633,25 +633,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G2">
-        <v>100000000</v>
+        <v>5000000000</v>
       </c>
       <c r="H2">
-        <v>1000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N2">
         <v>17</v>
@@ -672,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2">
         <v>50000000</v>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D8949-36E5-4AA9-B51D-8DCC9E345C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01731AE2-AE72-4C03-973F-74B0C74E8A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BossTable" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>15000000000</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>100000</v>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01731AE2-AE72-4C03-973F-74B0C74E8A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5646D-3016-4290-94CD-1E813DCAFDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,10 +648,10 @@
         <v>15000000000</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J2">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5646D-3016-4290-94CD-1E813DCAFDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF96F839-B179-424D-865F-05B86A3F1B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
         <v>5000000000</v>
       </c>
       <c r="H2">
-        <v>15000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="I2">
         <v>500</v>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF96F839-B179-424D-865F-05B86A3F1B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73835A9A-D939-4BF8-BBF9-DCE77D458540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,7 +172,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20000,3000000,5</t>
+    <t>20000,3000000,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +546,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,10 +642,10 @@
         <v>100000000000</v>
       </c>
       <c r="G2">
-        <v>5000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="H2">
-        <v>30000000000</v>
+        <v>60000000000</v>
       </c>
       <c r="I2">
         <v>500</v>
@@ -693,13 +693,13 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -720,10 +720,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10000000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="B2">
-        <v>40000000000000</v>
+        <v>60000000000</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -759,13 +759,13 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="F5">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -786,68 +786,71 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>12800000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D14" si="0">B9/$B$2</f>
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:E10" si="1">D9*$E$5</f>
-        <v>19200</v>
+        <v>10000</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F10" si="2">D9*$F$5</f>
-        <v>1600000</v>
+        <v>1500000</v>
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G10" si="3">D9*$G$5</f>
-        <v>2.56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>300000000</v>
+        <v>40000000000</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>7.5000000000000002E-6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>13333.333333333332</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>2000000</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>6.0000000000000002E-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>500000000</v>
+        <v>60000000000</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-5</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E14" si="4">D11*$E$5</f>
-        <v>0.75</v>
+        <v>20000</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F14" si="5">D11*$F$5</f>
-        <v>62.5</v>
+        <v>3000000</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G14" si="6">D11*$G$5</f>
-        <v>1E-4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -856,19 +859,19 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.0000000000000002E-5</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>1.2000000000000002</v>
+        <v>266.66666666666669</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>100.00000000000001</v>
+        <v>40000</v>
       </c>
       <c r="G12">
         <f t="shared" si="6"/>
-        <v>1.6000000000000001E-4</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -877,19 +880,19 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>2.2500000000000001E-5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
-        <v>1.35</v>
+        <v>300</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>112.5</v>
+        <v>45000</v>
       </c>
       <c r="G13">
         <f t="shared" si="6"/>
-        <v>1.8000000000000001E-4</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -898,19 +901,19 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="E14">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>13333333.333333332</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>5000000</v>
+        <v>2000000000</v>
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73835A9A-D939-4BF8-BBF9-DCE77D458540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63E6F4-645F-4A99-86A8-6C44E1B8E696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>20000,3000000,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,6 +682,62 @@
         <v>50000000</v>
       </c>
       <c r="S2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>100000000000</v>
+      </c>
+      <c r="G3">
+        <v>30000000000</v>
+      </c>
+      <c r="H3">
+        <v>60000000000</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3">
+        <v>150000</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>0.02</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <v>50000000</v>
+      </c>
+      <c r="S3">
         <v>10</v>
       </c>
     </row>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63E6F4-645F-4A99-86A8-6C44E1B8E696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0785CCA-0FA3-4203-AA7A-DA1246F166D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -708,10 +708,10 @@
         <v>60000000000</v>
       </c>
       <c r="I3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>

--- a/Assets/06.Table/BossTable.xlsx
+++ b/Assets/06.Table/BossTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0785CCA-0FA3-4203-AA7A-DA1246F166D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC574C2-0DA1-4799-952A-27EA38A46256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,108 @@
   <si>
     <t>boss1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss2</t>
+  </si>
+  <si>
+    <t>boss3</t>
+  </si>
+  <si>
+    <t>boss4</t>
+  </si>
+  <si>
+    <t>boss5</t>
+  </si>
+  <si>
+    <t>boss6</t>
+  </si>
+  <si>
+    <t>boss7</t>
+  </si>
+  <si>
+    <t>boss8</t>
+  </si>
+  <si>
+    <t>boss9</t>
+  </si>
+  <si>
+    <t>boss10</t>
+  </si>
+  <si>
+    <t>boss11</t>
+  </si>
+  <si>
+    <t>boss12</t>
+  </si>
+  <si>
+    <t>boss13</t>
+  </si>
+  <si>
+    <t>boss14</t>
+  </si>
+  <si>
+    <t>boss15</t>
+  </si>
+  <si>
+    <t>boss16</t>
+  </si>
+  <si>
+    <t>boss17</t>
+  </si>
+  <si>
+    <t>boss18</t>
+  </si>
+  <si>
+    <t>boss19</t>
+  </si>
+  <si>
+    <t>boss20</t>
+  </si>
+  <si>
+    <t>boss21</t>
+  </si>
+  <si>
+    <t>boss22</t>
+  </si>
+  <si>
+    <t>boss23</t>
+  </si>
+  <si>
+    <t>boss24</t>
+  </si>
+  <si>
+    <t>boss25</t>
+  </si>
+  <si>
+    <t>boss26</t>
+  </si>
+  <si>
+    <t>boss27</t>
+  </si>
+  <si>
+    <t>boss28</t>
+  </si>
+  <si>
+    <t>boss29</t>
+  </si>
+  <si>
+    <t>boss30</t>
+  </si>
+  <si>
+    <t>boss31</t>
+  </si>
+  <si>
+    <t>boss32</t>
+  </si>
+  <si>
+    <t>boss33</t>
+  </si>
+  <si>
+    <t>boss34</t>
+  </si>
+  <si>
+    <t>boss35</t>
   </si>
 </sst>
 </file>
@@ -547,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -738,6 +840,1910 @@
         <v>50000000</v>
       </c>
       <c r="S3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>100000000000</v>
+      </c>
+      <c r="G4">
+        <v>30000000000</v>
+      </c>
+      <c r="H4">
+        <v>60000000000</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>150000</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="O4">
+        <v>0.02</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4">
+        <v>50000000</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>100000000000</v>
+      </c>
+      <c r="G5">
+        <v>30000000000</v>
+      </c>
+      <c r="H5">
+        <v>60000000000</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>0.02</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5">
+        <v>50000000</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>100000000000</v>
+      </c>
+      <c r="G6">
+        <v>30000000000</v>
+      </c>
+      <c r="H6">
+        <v>60000000000</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>150000</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>0.02</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6">
+        <v>50000000</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>100000000000</v>
+      </c>
+      <c r="G7">
+        <v>30000000000</v>
+      </c>
+      <c r="H7">
+        <v>60000000000</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>0.02</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7">
+        <v>50000000</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>100000000000</v>
+      </c>
+      <c r="G8">
+        <v>30000000000</v>
+      </c>
+      <c r="H8">
+        <v>60000000000</v>
+      </c>
+      <c r="I8">
+        <v>500</v>
+      </c>
+      <c r="J8">
+        <v>150000</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>0.02</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>50000000</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>100000000000</v>
+      </c>
+      <c r="G9">
+        <v>30000000000</v>
+      </c>
+      <c r="H9">
+        <v>60000000000</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9">
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>0.02</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9">
+        <v>50000000</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>100000000000</v>
+      </c>
+      <c r="G10">
+        <v>30000000000</v>
+      </c>
+      <c r="H10">
+        <v>60000000000</v>
+      </c>
+      <c r="I10">
+        <v>500</v>
+      </c>
+      <c r="J10">
+        <v>150000</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10">
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <v>0.02</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10">
+        <v>50000000</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>100000000000</v>
+      </c>
+      <c r="G11">
+        <v>30000000000</v>
+      </c>
+      <c r="H11">
+        <v>60000000000</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>0.02</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11">
+        <v>50000000</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>100000000000</v>
+      </c>
+      <c r="G12">
+        <v>30000000000</v>
+      </c>
+      <c r="H12">
+        <v>60000000000</v>
+      </c>
+      <c r="I12">
+        <v>500</v>
+      </c>
+      <c r="J12">
+        <v>150000</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12">
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <v>0.02</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12">
+        <v>50000000</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>100000000000</v>
+      </c>
+      <c r="G13">
+        <v>30000000000</v>
+      </c>
+      <c r="H13">
+        <v>60000000000</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>0.02</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13">
+        <v>50000000</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>100000000000</v>
+      </c>
+      <c r="G14">
+        <v>30000000000</v>
+      </c>
+      <c r="H14">
+        <v>60000000000</v>
+      </c>
+      <c r="I14">
+        <v>500</v>
+      </c>
+      <c r="J14">
+        <v>150000</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14">
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <v>0.02</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14">
+        <v>50000000</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>100000000000</v>
+      </c>
+      <c r="G15">
+        <v>30000000000</v>
+      </c>
+      <c r="H15">
+        <v>60000000000</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15">
+        <v>17</v>
+      </c>
+      <c r="O15">
+        <v>0.02</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15">
+        <v>50000000</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>100000000000</v>
+      </c>
+      <c r="G16">
+        <v>30000000000</v>
+      </c>
+      <c r="H16">
+        <v>60000000000</v>
+      </c>
+      <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>150000</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16">
+        <v>17</v>
+      </c>
+      <c r="O16">
+        <v>0.02</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16">
+        <v>50000000</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>100000000000</v>
+      </c>
+      <c r="G17">
+        <v>30000000000</v>
+      </c>
+      <c r="H17">
+        <v>60000000000</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17">
+        <v>17</v>
+      </c>
+      <c r="O17">
+        <v>0.02</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17">
+        <v>50000000</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>100000000000</v>
+      </c>
+      <c r="G18">
+        <v>30000000000</v>
+      </c>
+      <c r="H18">
+        <v>60000000000</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <v>150000</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18">
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <v>0.02</v>
+      </c>
+      <c r="P18">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18">
+        <v>50000000</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>100000000000</v>
+      </c>
+      <c r="G19">
+        <v>30000000000</v>
+      </c>
+      <c r="H19">
+        <v>60000000000</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.02</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19">
+        <v>50000000</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>100000000000</v>
+      </c>
+      <c r="G20">
+        <v>30000000000</v>
+      </c>
+      <c r="H20">
+        <v>60000000000</v>
+      </c>
+      <c r="I20">
+        <v>500</v>
+      </c>
+      <c r="J20">
+        <v>150000</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20">
+        <v>17</v>
+      </c>
+      <c r="O20">
+        <v>0.02</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20">
+        <v>50000000</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>100000000000</v>
+      </c>
+      <c r="G21">
+        <v>30000000000</v>
+      </c>
+      <c r="H21">
+        <v>60000000000</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>0.02</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21">
+        <v>50000000</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>100000000000</v>
+      </c>
+      <c r="G22">
+        <v>30000000000</v>
+      </c>
+      <c r="H22">
+        <v>60000000000</v>
+      </c>
+      <c r="I22">
+        <v>500</v>
+      </c>
+      <c r="J22">
+        <v>150000</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>17</v>
+      </c>
+      <c r="O22">
+        <v>0.02</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22">
+        <v>50000000</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>100000000000</v>
+      </c>
+      <c r="G23">
+        <v>30000000000</v>
+      </c>
+      <c r="H23">
+        <v>60000000000</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>17</v>
+      </c>
+      <c r="O23">
+        <v>0.02</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23">
+        <v>50000000</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>100000000000</v>
+      </c>
+      <c r="G24">
+        <v>30000000000</v>
+      </c>
+      <c r="H24">
+        <v>60000000000</v>
+      </c>
+      <c r="I24">
+        <v>500</v>
+      </c>
+      <c r="J24">
+        <v>150000</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>17</v>
+      </c>
+      <c r="O24">
+        <v>0.02</v>
+      </c>
+      <c r="P24">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24">
+        <v>50000000</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>100000000000</v>
+      </c>
+      <c r="G25">
+        <v>30000000000</v>
+      </c>
+      <c r="H25">
+        <v>60000000000</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>17</v>
+      </c>
+      <c r="O25">
+        <v>0.02</v>
+      </c>
+      <c r="P25">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25">
+        <v>50000000</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>100000000000</v>
+      </c>
+      <c r="G26">
+        <v>30000000000</v>
+      </c>
+      <c r="H26">
+        <v>60000000000</v>
+      </c>
+      <c r="I26">
+        <v>500</v>
+      </c>
+      <c r="J26">
+        <v>150000</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26">
+        <v>17</v>
+      </c>
+      <c r="O26">
+        <v>0.02</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26">
+        <v>50000000</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>100000000000</v>
+      </c>
+      <c r="G27">
+        <v>30000000000</v>
+      </c>
+      <c r="H27">
+        <v>60000000000</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27">
+        <v>17</v>
+      </c>
+      <c r="O27">
+        <v>0.02</v>
+      </c>
+      <c r="P27">
+        <v>20</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27">
+        <v>50000000</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>100000000000</v>
+      </c>
+      <c r="G28">
+        <v>30000000000</v>
+      </c>
+      <c r="H28">
+        <v>60000000000</v>
+      </c>
+      <c r="I28">
+        <v>500</v>
+      </c>
+      <c r="J28">
+        <v>150000</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28">
+        <v>17</v>
+      </c>
+      <c r="O28">
+        <v>0.02</v>
+      </c>
+      <c r="P28">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28">
+        <v>50000000</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>100000000000</v>
+      </c>
+      <c r="G29">
+        <v>30000000000</v>
+      </c>
+      <c r="H29">
+        <v>60000000000</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29">
+        <v>17</v>
+      </c>
+      <c r="O29">
+        <v>0.02</v>
+      </c>
+      <c r="P29">
+        <v>20</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29">
+        <v>50000000</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>100000000000</v>
+      </c>
+      <c r="G30">
+        <v>30000000000</v>
+      </c>
+      <c r="H30">
+        <v>60000000000</v>
+      </c>
+      <c r="I30">
+        <v>500</v>
+      </c>
+      <c r="J30">
+        <v>150000</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30">
+        <v>17</v>
+      </c>
+      <c r="O30">
+        <v>0.02</v>
+      </c>
+      <c r="P30">
+        <v>20</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30">
+        <v>50000000</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>100000000000</v>
+      </c>
+      <c r="G31">
+        <v>30000000000</v>
+      </c>
+      <c r="H31">
+        <v>60000000000</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>17</v>
+      </c>
+      <c r="O31">
+        <v>0.02</v>
+      </c>
+      <c r="P31">
+        <v>20</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <v>50000000</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>100000000000</v>
+      </c>
+      <c r="G32">
+        <v>30000000000</v>
+      </c>
+      <c r="H32">
+        <v>60000000000</v>
+      </c>
+      <c r="I32">
+        <v>500</v>
+      </c>
+      <c r="J32">
+        <v>150000</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32">
+        <v>17</v>
+      </c>
+      <c r="O32">
+        <v>0.02</v>
+      </c>
+      <c r="P32">
+        <v>20</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <v>50000000</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>100000000000</v>
+      </c>
+      <c r="G33">
+        <v>30000000000</v>
+      </c>
+      <c r="H33">
+        <v>60000000000</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>17</v>
+      </c>
+      <c r="O33">
+        <v>0.02</v>
+      </c>
+      <c r="P33">
+        <v>20</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>50000000</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>100000000000</v>
+      </c>
+      <c r="G34">
+        <v>30000000000</v>
+      </c>
+      <c r="H34">
+        <v>60000000000</v>
+      </c>
+      <c r="I34">
+        <v>500</v>
+      </c>
+      <c r="J34">
+        <v>150000</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34">
+        <v>17</v>
+      </c>
+      <c r="O34">
+        <v>0.02</v>
+      </c>
+      <c r="P34">
+        <v>20</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34">
+        <v>50000000</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>100000000000</v>
+      </c>
+      <c r="G35">
+        <v>30000000000</v>
+      </c>
+      <c r="H35">
+        <v>60000000000</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>17</v>
+      </c>
+      <c r="O35">
+        <v>0.02</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35">
+        <v>50000000</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>100000000000</v>
+      </c>
+      <c r="G36">
+        <v>30000000000</v>
+      </c>
+      <c r="H36">
+        <v>60000000000</v>
+      </c>
+      <c r="I36">
+        <v>500</v>
+      </c>
+      <c r="J36">
+        <v>150000</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>17</v>
+      </c>
+      <c r="O36">
+        <v>0.02</v>
+      </c>
+      <c r="P36">
+        <v>20</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36">
+        <v>50000000</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>100000000000</v>
+      </c>
+      <c r="G37">
+        <v>30000000000</v>
+      </c>
+      <c r="H37">
+        <v>60000000000</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37">
+        <v>17</v>
+      </c>
+      <c r="O37">
+        <v>0.02</v>
+      </c>
+      <c r="P37">
+        <v>20</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37">
+        <v>50000000</v>
+      </c>
+      <c r="S37">
         <v>10</v>
       </c>
     </row>
